--- a/NSAS/data/Catch/stf_metrics_HAWG2020_Catches of WB and NS herring by fleet A-F_12-9.xlsx
+++ b/NSAS/data/Catch/stf_metrics_HAWG2020_Catches of WB and NS herring by fleet A-F_12-9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\wg_HAWG\NSAS\data\Catch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\git\wg_HAWG\NSAS\data\Catch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AF5B52F8-058A-4B76-B913-8621DC37557F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6458FC-46BF-455B-99EB-267B45B6CA20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="11850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUM CDF" sheetId="4" r:id="rId1"/>
@@ -26,10 +26,18 @@
     <definedName name="FintY">[1]prs!$F$7</definedName>
     <definedName name="Fmsy">'[1]C.opt Adv'!$B$39</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2028,7 +2036,7 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
